--- a/public/SCR_UploadBatch-templates.xlsx
+++ b/public/SCR_UploadBatch-templates.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguel/Library/CloudStorage/GoogleDrive-lmrodriguezr@gmail.com/My Drive/Academia/Uibk/Projects/SeqCode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguel/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A35C64-CBC5-B54B-AE7C-FFCBAE249436}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Vu5fFxFElF2yC1Cu0mr8L+XToAgSrp/L5FeuUf4criDs3j4rXm2rMWGhPaEVv7XFLV08C8j6LYR5RFpD6pqCdg==" workbookSaltValue="NGZts0o9pQOB6fNSHZrqag==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1A8E92-C5A8-BC46-B33C-4ED1B559979B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="ZUEPWwsQRUUnlNPjpBhxkc8Mm81K+Q1OkDAQfR2Rd44/tICOz6gZTxhFKneHFGlCOrGwj8Bn1+SgTi05gypAXw==" workbookSaltValue="/mf2LTrfYU1yVj71Tc96HA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="28740" windowHeight="16780" xr2:uid="{BC1BFC83-0B27-B042-92FD-C349BDA631E4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28740" windowHeight="16600" xr2:uid="{BC1BFC83-0B27-B042-92FD-C349BDA631E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,6 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>Description</t>
   </si>
@@ -105,6 +104,203 @@
   </si>
   <si>
     <t>SeqCode Registry Batch Upload</t>
+  </si>
+  <si>
+    <t>Please read the instructions below before filling up the table for batch uploads</t>
+  </si>
+  <si>
+    <t>Proposed Names</t>
+  </si>
+  <si>
+    <t>Use the "Proposed Names" sheet to fill up nomenclatural and taxonomic information of the new names</t>
+  </si>
+  <si>
+    <t>For additional information on the etymology fields, see:</t>
+  </si>
+  <si>
+    <t>Fill up as many fields as necessary from the etymology. Columns AB-AE are mandatory, all other etymology fields are optional.</t>
+  </si>
+  <si>
+    <t>Type Genomes</t>
+  </si>
+  <si>
+    <t>Use the "Type Genomes" sheet to fill up genome metadata for all sequence types of proposed names</t>
+  </si>
+  <si>
+    <t>All proposed names at the ranks of species and subspecies must declare a type genome, and all type genomes must be listed here.</t>
+  </si>
+  <si>
+    <t>To enter the accession of a genome in GenBank, Nuccore, ENA, DDBJ, use "insdc" as database. For NCBI Assembly use "assembly".</t>
+  </si>
+  <si>
+    <t>Names should not include any modifiers such as "Candidatus". Columns A-G are all mandatory.</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>proposed name without additional qualifiers</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Syllabification</t>
+  </si>
+  <si>
+    <t>Parent</t>
+  </si>
+  <si>
+    <t>Type of type</t>
+  </si>
+  <si>
+    <t>Nomenclatural Type</t>
+  </si>
+  <si>
+    <t>syllables separated by dots, acent with apostrophe</t>
+  </si>
+  <si>
+    <t>the name of the type taxon or the genome accession</t>
+  </si>
+  <si>
+    <t>Make sure to delete (or replace) all the example entries before submission!</t>
+  </si>
+  <si>
+    <t>List all the names proposed in a single publication (up to 100). If you have multiple publications, make sure to separate them in multiple submissions.</t>
+  </si>
+  <si>
+    <t>Last format update: 17.12.2024, Batch upload format version: 2.0</t>
+  </si>
+  <si>
+    <t>https://registry.seqco.de/help/etymology</t>
+  </si>
+  <si>
+    <t>Values will be automatically estimated for columns H-N if missing.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">taxonomic rank, from </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFB8CBD9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>phylum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB8CBD9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> to </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFB8CBD9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>subspecies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB8CBD9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">the full description of the taxon, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFB8CBD9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB8CBD9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> the name etymology</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">name of the parent taxon, or </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFB8CBD9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>incertae sedis (Domain)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFB8CBD9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB8CBD9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> for genera and above, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFB8CBD9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>nuccore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB8CBD9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFB8CBD9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>assembly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFB8CBD9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> otherwise</t>
+    </r>
   </si>
   <si>
     <r>
@@ -114,7 +310,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFB4ADBF"/>
+        <color rgb="FFB8CBD9"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t>(X)</t>
@@ -128,7 +324,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFB4ADBF"/>
+        <color rgb="FFB8CBD9"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t>(%)</t>
@@ -142,7 +338,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFB4ADBF"/>
+        <color rgb="FFB8CBD9"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t>(%)</t>
@@ -156,7 +352,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFB4ADBF"/>
+        <color rgb="FFB8CBD9"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t>(%)</t>
@@ -170,7 +366,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFB4ADBF"/>
+        <color rgb="FFB8CBD9"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t>(%)</t>
@@ -184,311 +380,112 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFB4ADBF"/>
+        <color rgb="FFB8CBD9"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t>(%)</t>
     </r>
   </si>
   <si>
-    <t>Please read the instructions below before filling up the table for batch uploads</t>
-  </si>
-  <si>
-    <t>Proposed Names</t>
-  </si>
-  <si>
-    <t>Use the "Proposed Names" sheet to fill up nomenclatural and taxonomic information of the new names</t>
-  </si>
-  <si>
-    <t>https://disc-genomics.uibk.ac.at/seqcode/help/etymology</t>
-  </si>
-  <si>
-    <t>For additional information on the etymology fields, see:</t>
-  </si>
-  <si>
-    <t>Fill up as many fields as necessary from the etymology. Columns AB-AE are mandatory, all other etymology fields are optional.</t>
-  </si>
-  <si>
-    <t>Type Genomes</t>
-  </si>
-  <si>
-    <t>Use the "Type Genomes" sheet to fill up genome metadata for all sequence types of proposed names</t>
-  </si>
-  <si>
-    <t>All proposed names at the ranks of species and subspecies must declare a type genome, and all type genomes must be listed here.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Follow embedded instructions for the </t>
+    <r>
+      <t xml:space="preserve">The </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FF221831"/>
+        <color rgb="FF112E43"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Genome Information</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF221831"/>
+      <t>Genome Entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF112E43"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (E-G) and </t>
+      <t xml:space="preserve"> columns (A-B) refer to the genome itself. The </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FF221831"/>
+        <color rgb="FF112E43"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Quality Assessment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF221831"/>
+      <t>Source Material</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF112E43"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (H-O) columns. All fields are mandatory except Comments (O).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">The </t>
+      <t xml:space="preserve"> (C-D) indicate the source material from which the genome was derived.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Follow embedded instructions for the </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FF221831"/>
+        <color rgb="FF112E43"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Genome Entry</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF221831"/>
+      <t>Genome Information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF112E43"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> columns (A-B) refer to the genome itself. The </t>
+      <t xml:space="preserve"> (E-G) and </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
-        <color rgb="FF221831"/>
+        <color rgb="FF112E43"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Source Material</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF221831"/>
+      <t>Quality Assessment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF112E43"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> (C-D) indicate the source material from which the genome was derived.</t>
-    </r>
-  </si>
-  <si>
-    <t>To enter the accession of a genome in GenBank, Nuccore, ENA, DDBJ, use "insdc" as database. For NCBI Assembly use "assembly".</t>
-  </si>
-  <si>
-    <t>Names should not include any modifiers such as "Candidatus". Columns A-G are all mandatory.</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>proposed name without additional qualifiers</t>
-  </si>
-  <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>Syllabification</t>
-  </si>
-  <si>
-    <t>Parent</t>
-  </si>
-  <si>
-    <t>Type of type</t>
-  </si>
-  <si>
-    <t>Nomenclatural Type</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFB4ADBF"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">taxonomic rank, from </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FFB4ADBF"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>phylum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFB4ADBF"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> to </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FFB4ADBF"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>subspecies</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFB4ADBF"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">the full description of the taxon, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFB4ADBF"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>not</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFB4ADBF"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> the name etymology</t>
-    </r>
-  </si>
-  <si>
-    <t>syllables separated by dots, acent with apostrophe</t>
-  </si>
-  <si>
-    <t>the name of the type taxon or the genome accession</t>
-  </si>
-  <si>
-    <t>Make sure to delete (or replace) all the example entries before submission!</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FFB4ADBF"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFB4ADBF"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> for genera and above, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FFB4ADBF"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>nuccore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFB4ADBF"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> or </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FFB4ADBF"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>assembly</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFB4ADBF"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> otherwise</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">name of the parent taxon, or </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color rgb="FFB4ADBF"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>incertae sedis (Domain)</t>
-    </r>
-  </si>
-  <si>
-    <t>Last format update: 08.12.2022, Batch upload format version: 1.0</t>
-  </si>
-  <si>
-    <t>List all the names proposed in a single publication (up to 100). If you have multiple publications, make sure to separate them in multiple submissions.</t>
+      <t xml:space="preserve"> (H-O) columns. Columns A-G are mandatory.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -514,23 +511,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFB4ADBF"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FFB4ADBF"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFB4ADBF"/>
-      <name val="Calibri (Body)"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF221831"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -544,31 +524,71 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color rgb="FF221831"/>
+      <color rgb="FFB8CBD9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
+      <color rgb="FFB8CBD9"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFB8CBD9"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFB8CBD9"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFB8CBD9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF112E43"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF112E43"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF322348"/>
+      <color rgb="FF112E43"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF112E43"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF112E43"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -583,19 +603,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF221831"/>
+        <fgColor rgb="FF112E43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF322348"/>
+        <fgColor rgb="FF23628F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF463266"/>
+        <fgColor rgb="FF1A4768"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,59 +750,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -794,13 +819,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -821,14 +846,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF322348"/>
-      <color rgb="FFB4ADBF"/>
-      <color rgb="FF221831"/>
-      <color rgb="FFF0E6FF"/>
-      <color rgb="FFB17CFF"/>
-      <color rgb="FF4B0082"/>
-      <color rgb="FF463266"/>
-      <color rgb="FF412E5E"/>
+      <color rgb="FF112E43"/>
+      <color rgb="FFB8CBD9"/>
+      <color rgb="FFCFDCE6"/>
+      <color rgb="FFA3BACC"/>
+      <color rgb="FFA5C4DC"/>
+      <color rgb="FF3796DC"/>
+      <color rgb="FF1A4768"/>
+      <color rgb="FF23628F"/>
+      <color rgb="FF173F5C"/>
+      <color rgb="FF1D5075"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1139,108 +1166,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8806C365-0E94-684A-8992-ECBA55B4DE9A}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="130.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="130.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>29</v>
+      <c r="A2" s="15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>56</v>
+      <c r="A3" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
+      <c r="A4" s="3"/>
     </row>
     <row r="5" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>30</v>
+      <c r="A5" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>31</v>
+      <c r="A6" s="11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+    </row>
+    <row r="14" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="15"/>
-    </row>
-    <row r="14" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="18" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>40</v>
+      <c r="A18" s="17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>38</v>
+      <c r="A19" s="17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RUouNelg2J9vqd/6uS1mulPec3kI6Rie+lYe9PIFD5uFzYJDTVS3mFcfvZqAB+S0E/hyUjau+cZ6Tguulmy+NA==" saltValue="JQYY9w65PjXPMPnDKxPZoA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="VBzPeeyHAWqoxa8vL8GSJzrod0D9/2Rw7z/iYPQR6vmh/Rm0vuZbqefcARSsGQc3eDU9ouo2q4nv1q8p1+0E1g==" saltValue="E+BHHpNX5riQwwU4EGDSAQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <hyperlinks>
     <hyperlink ref="A12" r:id="rId1" xr:uid="{075D9303-2386-A746-A071-CD463EF3E814}"/>
   </hyperlinks>
@@ -1256,36 +1288,37 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="7" width="18.5" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="13"/>
+    <col min="1" max="7" width="18.5" style="12" customWidth="1"/>
+    <col min="8" max="31" width="10.83203125" style="12"/>
+    <col min="32" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>48</v>
+      <c r="D1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="H1" s="23" t="s">
         <v>1</v>
@@ -1316,25 +1349,25 @@
     </row>
     <row r="2" spans="1:31" s="1" customFormat="1" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B2" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="F2" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>54</v>
-      </c>
       <c r="G2" s="26" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H2" s="20" t="s">
         <v>4</v>
@@ -1381,81 +1414,81 @@
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="L3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="N3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="P3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="W3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Y3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="Z3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AA3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AB3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AC3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AD3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AE3" s="9" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CHjjjOB7PaoxvmjPeFzs3RoUS1X35MnR5nchlOpBc/MhX/aSpW4ID1vbo3R+PV6Kwn64z27V52J/dmiXaV5dDQ==" saltValue="hEfQomqU0ByGVA/7W93krA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="mrrOM5bVfT1e5AUtBrlz8XhLQ7u1Q+r4Ekg9QPGXMNVlB144t2ECzhDgJmAR4yrg7kORsFaH77LK+cWi+GN0ag==" saltValue="LnBQaD/Ncyvf6FaOGy30WQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="14">
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="A2:A3"/>
@@ -1525,14 +1558,14 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:B1"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="14" width="18.5" style="13" customWidth="1"/>
-    <col min="15" max="15" width="72.6640625" style="13" customWidth="1"/>
-    <col min="16" max="16384" width="10.83203125" style="14"/>
+    <col min="1" max="14" width="18.5" style="12" customWidth="1"/>
+    <col min="15" max="15" width="72.6640625" style="12" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -1561,60 +1594,60 @@
       <c r="O1" s="30"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="85" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="F2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="6" t="s">
+      <c r="L2" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O6" s="17"/>
+      <c r="O6" s="13"/>
     </row>
     <row r="7" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="O7" s="18"/>
+      <c r="O7" s="14"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="oLO0CVHC6v+mr9D6z4oUat50pdocnZoHMvH4C88iVGHaZ3skbz6Y2uY4DLgeAgVWrHN8sD3iAxO+IWZXrt+NbQ==" saltValue="ZNRwh75gu5irHFQmQOOiUg==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aORfnYryszqKAmh2ehawNagpy2RqTaujWAAVqfBlV1onCzZ8+MMFKs0mdmo+KiavqZElHZPtQFKqUid8J10Vyg==" saltValue="TQbiHihq/qSp5si34cD+LQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="H1:O1"/>
     <mergeCell ref="C1:D1"/>
